--- a/docs/Decodifiche/53_dec_tipo_accordo_separazione.xlsx
+++ b/docs/Decodifiche/53_dec_tipo_accordo_separazione.xlsx
@@ -90,7 +90,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,30 +98,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.03125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.78515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>

--- a/docs/Decodifiche/53_dec_tipo_accordo_separazione.xlsx
+++ b/docs/Decodifiche/53_dec_tipo_accordo_separazione.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Modifica delle condizioni di separazione</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Modifica delle condizioni di scioglimento/cessazione effetti civili</t>
   </si>
 </sst>
 </file>
@@ -115,14 +121,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.78125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="58.29296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -213,6 +219,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
